--- a/AkshayPatra_DailyOrders_2023-04-11.xlsx
+++ b/AkshayPatra_DailyOrders_2023-04-11.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -573,7 +573,6 @@
           <t>cscs</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>825</v>
       </c>
@@ -582,8 +581,6 @@
           <t>Delivery</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">5 Tiffin | 
@@ -612,6 +609,831 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+0  Bhakri  | 
+1  Bhaji 1  | 
+1  Bhaji 2  | 
+1 Varan | 
+1 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+0  Bhakri  | 
+1  Bhaji 1  | 
+1  Bhaji 2  | 
+0 Varan | 
+1 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+1  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Tiffin | 
+0 Chapati | 
+0  Bhakri  | 
+0  Bhaji 1  | 
+1  Bhaji 2  | 
+1 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+0  Bhakri  | 
+1  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+0  Bhakri  | 
+1  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+1  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sneha pathak</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+0  Bhaji 1  | 
+2  Bhaji 2  | 
+0 Varan | 
+1 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rajas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+1  Bhaji 1  | 
+0  Bhaji 2  | 
+1 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>asa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Tiffin | 
+0 Chapati | 
+0 special Bhakri  | 
+0 shdss Bhaji 1  | 
+0 sfs Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+1  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+0 Chapati | 
+1  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Tiffin | 
+1 Chapati | 
+5  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 Tiffin | 
+3 Chapati | 
+2  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 Tiffin | 
+1 Chapati | 
+0  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 Tiffin | 
+0 Chapati | 
+0  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 Tiffin | 
+0 Chapati | 
+0  Bhakri  | 
+0  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Take Away</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 Tiffin | 
+0 Chapati | 
+0  Bhakri  | 
+2  Bhaji 1  | 
+0  Bhaji 2  | 
+0 Varan | 
+0 Rice | 
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
